--- a/Hub Gene Comparisons.xlsx
+++ b/Hub Gene Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Gutierrez\Desktop\RNAseq-AMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AE6281-0AFE-40AF-AE2B-047EA3475D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A756B-4D01-438E-B5A7-45D7049FEAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EDA630E-EA61-4C2C-8ECE-05F5882F84C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EDA630E-EA61-4C2C-8ECE-05F5882F84C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="71">
   <si>
     <t>Paper Hubs</t>
   </si>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24458644-BEFE-4FBE-BC3C-7D9164DF899F}">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,13 +1142,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O21" s="4"/>
     </row>
@@ -1161,6 +1164,9 @@
       </c>
       <c r="G22" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O22" s="4"/>
     </row>
@@ -1177,9 +1183,7 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>

--- a/Hub Gene Comparisons.xlsx
+++ b/Hub Gene Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Gutierrez\Desktop\RNAseq-AMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A756B-4D01-438E-B5A7-45D7049FEAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120F2282-50FD-46CC-A367-24EBAAEF7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EDA630E-EA61-4C2C-8ECE-05F5882F84C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EDA630E-EA61-4C2C-8ECE-05F5882F84C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="72">
   <si>
     <t>Paper Hubs</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>SERPINA5</t>
+  </si>
+  <si>
+    <t>JSD Hubs</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -702,7 +712,7 @@
   <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,6 +1148,11 @@
       <c r="G20" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1150,8 +1165,14 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
+      <c r="J21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="O21" s="4"/>
     </row>
@@ -1165,9 +1186,11 @@
       <c r="G22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="J22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1180,6 +1203,11 @@
       <c r="G23" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="J23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2845,12 +2873,28 @@
       <c r="O112" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="I103:K103"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="H85:J85"/>
+  <mergeCells count="36">
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
     <mergeCell ref="L85:N85"/>
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="E96:G96"/>
@@ -2861,45 +2905,35 @@
     <mergeCell ref="I68:K68"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="H85:J85"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B8 D3:F8 H3:J8 L3:N10 I14:K14 E14:G15 A14:C19 E21:G27">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>COUNTIF($A$3:$N$27, A3) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B38 D31:F38 H31:J38 L31:N38 I42:K42 E42:G43 A42:C47 I49:K50 E49:G55">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>COUNTIF($A$29:$N$55, A31) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B66 D59:F66 H59:J66 L59:N66 I70:K70 E70:G71 A70:C75 I77:K81 E77:G83">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>COUNTIF($A$59:$N$83, A59) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:B94 D87:F94 H87:J94 L87:N94 I98:K98 E98:G99 A98:C103 I105:K109 E105:G111">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTIF($A$87:$N$111, A87) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:L23">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A$87:$N$111, A87) &gt; 1</formula>
+      <formula>COUNTIF($A$29:$N$55, J22) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
